--- a/va_facility_data_2025-02-20/Jay VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Jay%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Jay VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Jay%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R45ab427e47054f1893757609f68a32be"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R39643d5c52c74d658d8d3dc7162bb63e"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R0e935cd0e6a94f828eb995ba0bbcae8f"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rdbb1eb26d1cc4d738c1a25bc33fb3ee6"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R4db7112e3e8d4efc8595e163f48868f7"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rf6ba4deaa899413484bfc0adde1f5bab"/>
   </x:sheets>
 </x:workbook>
 </file>
